--- a/BalanceSheet/CME_bal.xlsx
+++ b/BalanceSheet/CME_bal.xlsx
@@ -3822,7 +3822,7 @@
         <v>3241000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>2761000000.0</v>
+        <v>2158600000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2583100000.0</v>
@@ -3949,7 +3949,7 @@
         <v>4175000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>4400000000.0</v>
+        <v>3793200000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>3873300000.0</v>
